--- a/biology/Botanique/Glossaire_des_Poaceae/Glossaire_des_Poaceae.xlsx
+++ b/biology/Botanique/Glossaire_des_Poaceae/Glossaire_des_Poaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ce glossaire des Poaceae présente un répertoire de termes qui ont une signification particulière dans le domaine de l'étude des plantes de la famille des Poaceae (ou graminées), ainsi que leurs définitions.
@@ -539,14 +551,16 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>abscission : processus physiologique qui permet la séparation d'un organe, par exemple de fleurons ou d'épillets dans une inflorescence.
 albumen : tissu de réserves nutritives de la graine.
-aleurone : couche à aleurone, couches de cellules, riches en protéines, les plus externes de l'albumen[1].
-amphipodial :  se dit des rhizomes de bambous présentant des caractéristiques relevant à la fois des bambous de type sympodial et monopodial. Terme considéré comme ambigu par certains auteurs[2].
-amylacé : riche en amidon[3]. cas par exemple de l'albumen des caryopses.
-anthèse : floraison, période pendant laquelle l'enveloppe florale s'ouvre sous la pression des lodicules, exposant les anthères et les stigmates[4].
+aleurone : couche à aleurone, couches de cellules, riches en protéines, les plus externes de l'albumen.
+amphipodial :  se dit des rhizomes de bambous présentant des caractéristiques relevant à la fois des bambous de type sympodial et monopodial. Terme considéré comme ambigu par certains auteurs.
+amylacé : riche en amidon. cas par exemple de l'albumen des caryopses.
+anthèse : floraison, période pendant laquelle l'enveloppe florale s'ouvre sous la pression des lodicules, exposant les anthères et les stigmates.
  annuelle : plante achevant son cycle de vie en une année.
 arête : poil ou barbe prolongeant une pièce de l'épillet.
 arista : voir « arête ».
@@ -581,7 +595,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>baguette : fragment du rachillet (élément de l'épillet), portant le fleuron sus-jacent et restant solidaire du fleuron après désarticulation à maturité.
 balle : enveloppe du caryopse des graminées  formé par les glumes et les glumelles
@@ -613,9 +629,11 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>callus :  base dure à la base d'un fleuron (cf. Aristida et Austrostipa), d'un épillet (cf. Heteropogon, Andropogon et genres apparentés), ou d'un segment d'inflorescence, juste au-dessus du point de désarticulation[5]. Dans le premier cas, le callus est une portion du rachillet ; dans le second, c'est une partie du rachis. Chez Eriochloa, le callus est le nœud épaissi et les vestiges de la première glume ; chez Chrysopogon, il fait partie du pédicelle[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>callus :  base dure à la base d'un fleuron (cf. Aristida et Austrostipa), d'un épillet (cf. Heteropogon, Andropogon et genres apparentés), ou d'un segment d'inflorescence, juste au-dessus du point de désarticulation. Dans le premier cas, le callus est une portion du rachillet ; dans le second, c'est une partie du rachis. Chez Eriochloa, le callus est le nœud épaissi et les vestiges de la première glume ; chez Chrysopogon, il fait partie du pédicelle.
 canne :  nom parfois donné aux chaumes plus ou moins lignifiés des bambous, roseaux (canne de Provence) et cannes à sucre ; voir « chaume ».
 caryopse :  fruit sec spécialisé, indéhiscent, caractéristique des graminées, dans lequel la graine (unique) et le péricarpe (paroi ovarienne) sont soudés.
 carène : saillie linéaire observée sur certaines pièces florales (glumes, glumelles...)
@@ -626,14 +644,14 @@
 chaume :   tige caractéristique des plantes de la famille des Poaceae, formée d'une succession de nœuds et d'entrenœuds.
 ciliolé : muni de cils de petite taille.
 cléistogame : qualifie une fleur auto-pollinisée, qui ne s'ouvre jamais complètement, ou qui s'auto-pollinise avant l'éclosion ; voir « chasmogame ».
-cléistogène : qui produit des fleurs cléistogames[7].
+cléistogène : qui produit des fleurs cléistogames.
 col : voir « collet ».
 coléoptile : organe transitoire enveloppant et protégeant la nouvelle pousse lors de la germination.
 coléorhize : gaine entourant et protégeant la radicule lors de la germination des graminées.
 collet :  zone claire ou pourprée située à la jonction de la gaine et du limbe foliaire.
 colonne :  partie inférieure torsadée d'une arête géniculée ; chez les Aristideae, pièce située sous le point d'insertion de l'arête.
 composé :  qualifie les inflorescences constituées d'un certain nombre d'inflorescences élémentaires (par exemple chez les Andropogoneae).
-culmaire :  relatif au chaume des graminées ; qualifie notamment des feuilles naissant sur le chaume[8].
+culmaire :  relatif au chaume des graminées ; qualifie notamment des feuilles naissant sur le chaume.
 cyanogénétique (ou cyanogène) : substance susceptible de libérer de l'acide cyanhydrique dans certaines conditions.</t>
         </is>
       </c>
@@ -662,7 +680,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>décombant : aux tiges poussant d'abord horizontalement sur le sol, et se redressant ensuite.
 désarticulation : séparation par abscission des éléments de l'inflorescence destiné à la dissémination, peut concerner les fleurons, les épillets, une partie de l'inflorescence ou l'inflorescence tout entière.
@@ -671,7 +691,7 @@
 diffus : chez les bambous, chaumes issus séparément de rhizomes longs et minces.
 digité : disposition d'éléments (en particulier d'une inflorescence) rayonnant d'un même point comme les doigts de la main. Exemple : inflorescence  en grappes digitées du genre Digitaria.
 disséminule : élément de dissémination, ou diaspore.
-distique : disposition alterne dans un même plan le long de deux lignes parallèles de certains organes (feuilles, épillets)[3].
+distique : disposition alterne dans un même plan le long de deux lignes parallèles de certains organes (feuilles, épillets).
 drapeau (feuille) : dernière feuille non réduite située sous l'inflorescence.</t>
         </is>
       </c>
@@ -700,7 +720,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>égrenage :  dispersion spontanée des graines arrivées à maturité ; chez les céréales cultivées, ce caractère a été éliminé par la domestication.
 endosperme : voir « albumen ».
@@ -738,7 +760,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>fertile : qualifie un fleuron produisant un caryopse (fleuron femelle ou hermaphrodite) ; se dit aussi d'un épillet composé d'un ou plusieurs fleurons fertiles.
 fleur : la fleur simplifiée des graminées comprend les organes sexuels (étamines et pistil) et les lodicules (vestiges du périanthe).
@@ -770,12 +794,14 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>gaine culmaire : voir « gaine de chaume ».
-gaine de chaume : chez les bambous, feuille modifiée, souvent non-photosynthétique, avec une gaine développée et un limbe très réduit, généralement caduc à la maturité du chaume[9].
-gazonnant : formant des touffes étalées, non-cespiteuses, par des stolons ou des rhizomes[10].
-géniculé : se dit d’un organe (tige, arête) brusquement coudé, plié comme un genou[3].
+gaine de chaume : chez les bambous, feuille modifiée, souvent non-photosynthétique, avec une gaine développée et un limbe très réduit, généralement caduc à la maturité du chaume.
+gazonnant : formant des touffes étalées, non-cespiteuses, par des stolons ou des rhizomes.
+géniculé : se dit d’un organe (tige, arête) brusquement coudé, plié comme un genou.
 gaine foliaire :  partie basale de la feuille de graminée qui enveloppe normalement un entrenœud  du chaume.
 genouillé : voir « géniculé »
 glume : une des deux bractées ou écailles vides à la base d'un épillet de graminée ;  pièce axillant l'épillet chez les graminées.
@@ -812,7 +838,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>halophyte :  plante adaptée aux lieux saumâtres et salés
 hélophyte : type  biologique  correspondant  à  des  plantes  aquatiques  dont  les  feuilles  dépassent  de  l'eau  mais  les bourgeons dormants sont sous l'eau
@@ -847,7 +875,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>indéterminée : croissance d'un axe qui se termine par un bourgeon terminal (susceptible de croissance ultérieure).
 innovation : tige stérile, pousse stérile, bourgeon développé en rameaux courts à la base des chaumes et n’évoluant que l’année suivante
@@ -880,9 +910,11 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kranz : anatomie de type kranz, anatomie particulière des feuilles des plantes à photosynthèse en C4[11].</t>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Kranz : anatomie de type kranz, anatomie particulière des feuilles des plantes à photosynthèse en C4.</t>
         </is>
       </c>
     </row>
@@ -910,7 +942,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>lemma : voir « lemme ».
 lemme :  glumelle inférieure du fleuron des graminées (avec la paléole, ces deux glumelles enveloppement le fleuron et à maturité le caryopse, auquel elles peuvent être adhérentes).
@@ -945,7 +979,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>mérithalle : synonyme d'entrenœud.
 mérithallien : relatif au mérithalle.
@@ -954,7 +990,7 @@
 monocarpique : plante ne fructifiant qu'une seule fois (cas de certains bambous).
 monocotylédone : plante qui ne possède dans la graine d'un seul cotylédon (feuille primordiale).
 monopodial : dont la croissance est assurée d'année en année par le bourgeon terminal ; voir « leptomorphe ».
-mutique : dépourvu d'arête (glume ou glumelle) (antonyme : aristé) ou de mucron[10].</t>
+mutique : dépourvu d'arête (glume ou glumelle) (antonyme : aristé) ou de mucron.</t>
         </is>
       </c>
     </row>
@@ -982,7 +1018,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>nervation : disposition des nervure sur une feuille, une glume ou une glumelle.
 nervure : structure conductrice de sève dans les organes foliaires (limbe et gaine foliaire, bractée, glume ou glumelle).
@@ -1015,7 +1053,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>oreillettes : excroissances ou appendices, semblables à un lobe d’oreille, disposées de façon symétrique à la jonction de la gaine et du limbe foliaire.</t>
         </is>
@@ -1045,7 +1085,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>pachymorphe : chez les bambous, rhizome sympodial, plus épais que les chaumes.
 paire d’épillets : agencement de deux épillets, l'un sessile et l'autre pédicellé, issus d'un même nœud, caractéristique des Andropogoneae.
@@ -1093,14 +1135,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>racème : chez les graminées, axe non ramifié portant des épillets pédicellés ; les racèmes peuvent être solitaires, digités ou épars.
 rachéole : voir « rachillet ».
 rachilla : voir « rachillet » .
 rachillet (ou rachéole) : axe central d’un épillet qui porte les fleurons.
 rachis  : axe de l'inflorescence portant les épillets (concerne les épis, les racèmes et les panicules spiciformes).
-radicule : première racine qui émerge de la graine lors de la germination[12].
+radicule : première racine qui émerge de la graine lors de la germination.
 rhizomateux : qui possède un rhizome.
 rhizome : tige souterraine portant des racines adventives.
 roseaux : plantes ligneuses de la sous-famille des Arundinoiseae</t>
@@ -1131,11 +1175,13 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>scabre : rude au toucher.
 scarieux :  qualifie un organe (glume ou glumelle par exemple) sec et membraneux, souvent mince au point d'être translucide.
-scutellum : excroissance latérale de l'embryon des graines de graminées, assimilée à un cotylédon modifié[13].
+scutellum : excroissance latérale de l'embryon des graines de graminées, assimilée à un cotylédon modifié.
 semelauctant  : chez les bambous, inflorescence dont les glumes ne sous-tendent pas de bourgeons viable.
 semence : voir « diaspore »
 sillon internodal : chez les bambous, dépression en forme de canal sur la longueur d'un entrenœeud.
@@ -1183,15 +1229,17 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>tallage : processus de formation de nouvelles talles.
 talle : chaume secondaire issu d'un bourgeon axillaire.
-térète : qualifie un organe (tige, nervure, etc.) ne présentant pas d'angles marqués[8].
+térète : qualifie un organe (tige, nervure, etc.) ne présentant pas d'angles marqués.
 touradon :
-traçant : qualifie les plantes, notamment les bambous, dont les rhizomes allongés ont une croissance horizontale importante[9].
+traçant : qualifie les plantes, notamment les bambous, dont les rhizomes allongés ont une croissance horizontale importante.
 triade : groupe de trois épillets portés ensemble.
-turion : chez les bambous, jeune pousse sans feuilles, protégée par les gaines de chaume, souvent comestible[9].
+turion : chez les bambous, jeune pousse sans feuilles, protégée par les gaines de chaume, souvent comestible.
 tussock (anglais) :  touffes d'herbes poussant en prairies humides dans les régions tempérées.</t>
         </is>
       </c>
@@ -1220,7 +1268,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>unicespiteux : chez les bambous, chaumes nés d'une seule touffe de rhizomes pachymorphes.</t>
         </is>
@@ -1250,7 +1300,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>vaginal : relatif à la gaine (ex. : cicatrice vaginale : trace laissée par la gaine au lieu de son insertion).
 vêtu : se dit du grain de certaines céréales aux glumelles adhérentes, et qui nécessite un décorticage ultérieur (par exemple le riz).
@@ -1283,7 +1335,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>xérophile : plante qui préfère  les endroits chauds et secs.
 xérophyte : plante adaptée à la vie dans des conditions sèches</t>
